--- a/BalanceSheet/NUE_bal.xlsx
+++ b/BalanceSheet/NUE_bal.xlsx
@@ -4673,7 +4673,7 @@
         <v>2935000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2640000000.0</v>
+        <v>2548364000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2428219000.0</v>
@@ -4800,7 +4800,7 @@
         <v>4326000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4475000000.0</v>
+        <v>4383009000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>4364200000.0</v>
